--- a/Instances/03_Lumpy_b2_fe25_en_rk50_ll0_l20_H210_c2.xlsx
+++ b/Instances/03_Lumpy_b2_fe25_en_rk50_ll0_l20_H210_c2.xlsx
@@ -576,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>505</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>505</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1197</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1197</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
@@ -4086,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>693</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
@@ -4150,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>505</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>505</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012</v>
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>693</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
@@ -4347,16 +4347,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4403,16 +4403,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4459,16 +4459,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -4515,16 +4515,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4571,16 +4571,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -4979,16 +4979,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>132.3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5035,16 +5035,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5091,16 +5091,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>132.3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5147,16 +5147,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>132.3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5203,16 +5203,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>132.3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>

--- a/Instances/03_Lumpy_b2_fe25_en_rk50_ll0_l20_H210_c2.xlsx
+++ b/Instances/03_Lumpy_b2_fe25_en_rk50_ll0_l20_H210_c2.xlsx
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
@@ -4086,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
@@ -4150,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012</v>
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>

--- a/Instances/03_Lumpy_b2_fe25_en_rk50_ll0_l20_H210_c2.xlsx
+++ b/Instances/03_Lumpy_b2_fe25_en_rk50_ll0_l20_H210_c2.xlsx
@@ -544,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4281,7 +4281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4899,6 +4899,118 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>70</v>
+      </c>
+      <c r="C12" t="n">
+        <v>126</v>
+      </c>
+      <c r="D12" t="n">
+        <v>57</v>
+      </c>
+      <c r="E12" t="n">
+        <v>46</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>70</v>
+      </c>
+      <c r="C13" t="n">
+        <v>126</v>
+      </c>
+      <c r="D13" t="n">
+        <v>57</v>
+      </c>
+      <c r="E13" t="n">
+        <v>46</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4913,7 +5025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5531,6 +5643,118 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>35</v>
+      </c>
+      <c r="C12" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>45</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>35</v>
+      </c>
+      <c r="C13" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>45</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>0</v>
       </c>
     </row>
